--- a/apps/features/redmine/payment management/add new payment method/add new payment method.xlsx
+++ b/apps/features/redmine/payment management/add new payment method/add new payment method.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\redmine\payment management\add new payment method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C124DFFF-5F1A-428A-B19E-CDC9D2FE0F5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEBA1E-041F-4B9F-B4E5-0844F1B5EB27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -188,9 +188,6 @@
     <t>SYM-TC-017</t>
   </si>
   <si>
-    <t>should confirm that the system provides appropriate error messages if there are issues with the gateway integration</t>
-  </si>
-  <si>
     <t>test for wrong integration with each available payment gateway type</t>
   </si>
   <si>
@@ -349,6 +346,11 @@
   </si>
   <si>
     <t>TC_SYM_031</t>
+  </si>
+  <si>
+    <t>should confirm that the system provides 
+appropriate error messages if there are
+ issues with the gateway integration</t>
   </si>
 </sst>
 </file>
@@ -578,6 +580,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -595,15 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,8 +1485,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1501,15 +1503,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -1531,13 +1533,13 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1605,13 +1607,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1642,23 +1644,25 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1685,18 +1689,20 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1723,18 +1729,20 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1761,18 +1769,20 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1799,18 +1809,20 @@
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1837,18 +1849,20 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1875,18 +1889,20 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1913,18 +1929,20 @@
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1951,18 +1969,20 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1989,18 +2009,20 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2027,18 +2049,20 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2065,18 +2089,20 @@
         <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2103,18 +2129,20 @@
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2141,18 +2169,20 @@
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>53</v>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2179,18 +2209,20 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2217,18 +2249,20 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>96</v>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2255,18 +2289,20 @@
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2290,21 +2326,23 @@
     </row>
     <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2328,21 +2366,23 @@
     </row>
     <row r="23" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>96</v>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2366,21 +2406,23 @@
     </row>
     <row r="24" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>96</v>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2404,21 +2446,23 @@
     </row>
     <row r="25" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2442,21 +2486,23 @@
     </row>
     <row r="26" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2508,21 +2554,23 @@
     </row>
     <row r="28" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2546,21 +2594,23 @@
     </row>
     <row r="29" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2584,21 +2634,23 @@
     </row>
     <row r="30" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2622,21 +2674,23 @@
     </row>
     <row r="31" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>96</v>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2660,21 +2714,23 @@
     </row>
     <row r="32" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2698,21 +2754,23 @@
     </row>
     <row r="33" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2736,21 +2794,23 @@
     </row>
     <row r="34" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>96</v>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>96</v>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2774,21 +2834,23 @@
     </row>
     <row r="35" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>96</v>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>96</v>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2811,22 +2873,24 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>102</v>
+      <c r="A36" s="14" t="s">
+        <v>101</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>96</v>
+      <c r="B36" s="15" t="s">
+        <v>95</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>96</v>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -29564,11 +29628,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F26 F28:F36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
